--- a/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ_ΕΒΔΟΜΑΔΙΑΙΑ/2026-W01/XLSX/ΕΒΔΟΜΑΔΙΑΙΟ_ΣΗΜΕΙΩΜΑ_HYDROGARDENS Ι.Κ.Ε_2026-W01.xlsx
+++ b/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ_ΕΒΔΟΜΑΔΙΑΙΑ/2026-W01/XLSX/ΕΒΔΟΜΑΔΙΑΙΟ_ΣΗΜΕΙΩΜΑ_HYDROGARDENS Ι.Κ.Ε_2026-W01.xlsx
@@ -699,7 +699,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1015,12 +1015,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="22" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3209,9 +3210,10 @@
       </c>
       <c r="C29" s="112" t="inlineStr">
         <is>
-          <t>16/01/26</t>
-        </is>
-      </c>
+          <t>17/01/26</t>
+        </is>
+      </c>
+      <c r="D29" s="113" t="n"/>
       <c r="E29" s="40" t="n"/>
       <c r="F29" s="59" t="inlineStr">
         <is>
@@ -3244,7 +3246,7 @@
     </row>
     <row r="31" ht="28.75" customHeight="1" s="78"/>
     <row r="32" ht="38.25" customHeight="1" s="78">
-      <c r="B32" s="113" t="inlineStr">
+      <c r="B32" s="114" t="inlineStr">
         <is>
           <t>Σημείωση: Το τελικό ποσό πίστωσης παραγωγού προκύπτει από το άθροισμα των γινομένων της παραγόμενης ενέργειας επί της αντίστοιχης Τιμής Εκκαθάρισης Αγοράς Επόμενης Ημέρας ανά 15', αφαιρώντας την πληρωμή υπηρεσιών ΦοΣΕ και Διαχειριστικών εξόδων. Οι πληρωμές της GREEN VALUE Α.Ε. πραγματοποιουνται εντός 2 εργάσιμων ημερών μετά την παραλαβή του ενημερωτικού σημειώματος.</t>
         </is>
@@ -3258,10 +3260,10 @@
     <row r="40" ht="28.5" customHeight="1" s="78"/>
     <row r="41" ht="28.5" customHeight="1" s="78"/>
     <row r="43">
-      <c r="D43" s="114" t="n"/>
+      <c r="D43" s="115" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F29:G29"/>
@@ -3272,6 +3274,7 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B20:D20"/>
